--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_277__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_277__Reeval_Halton_Modell_1.2.xlsx
@@ -5987,19 +5987,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>92.91233062744141</c:v>
+                  <c:v>92.91232299804688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.922556400299072</c:v>
+                  <c:v>5.922562122344971</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>75.61479187011719</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3112848997116089</c:v>
+                  <c:v>0.3112790584564209</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.94183349609375</c:v>
+                  <c:v>92.94185638427734</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>91.98957061767578</c:v>
@@ -6008,64 +6008,64 @@
                   <c:v>93.18694305419922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7431179285049438</c:v>
+                  <c:v>0.7431237697601318</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>41.65097808837891</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>93.35996246337891</c:v>
+                  <c:v>93.35995483398438</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93.14072418212891</c:v>
+                  <c:v>93.14073181152344</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>19.20087623596191</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.17292785644531</c:v>
+                  <c:v>90.17293548583984</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>93.85703277587891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.55002498626709</c:v>
+                  <c:v>6.550036430358887</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.64083194732666</c:v>
+                  <c:v>4.640849590301514</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.06520843505859</c:v>
+                  <c:v>87.06522369384766</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.234822273254395</c:v>
+                  <c:v>7.234816551208496</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.12256622314453</c:v>
+                  <c:v>22.12255477905273</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.388230085372925</c:v>
+                  <c:v>3.388224124908447</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>69.38446807861328</c:v>
+                  <c:v>69.38446044921875</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3.069998979568481</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>93.28594970703125</c:v>
+                  <c:v>93.28595733642578</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.402937889099121</c:v>
+                  <c:v>3.40294361114502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.247421741485596</c:v>
+                  <c:v>1.247404217720032</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.97501564025879</c:v>
+                  <c:v>23.97500991821289</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>66.73027038574219</c:v>
+                  <c:v>66.73027801513672</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-1.437020421028137</c:v>
@@ -6074,43 +6074,43 @@
                   <c:v>91.89470672607422</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>89.54631805419922</c:v>
+                  <c:v>89.54630279541016</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>57.63317489624023</c:v>
+                  <c:v>57.63317108154297</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>24.10465812683105</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1798658967018127</c:v>
+                  <c:v>0.179854154586792</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.8140516877174377</c:v>
+                  <c:v>0.814034104347229</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>80.740478515625</c:v>
+                  <c:v>80.74048614501953</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.746827602386475</c:v>
+                  <c:v>6.746845245361328</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>80.00525665283203</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16.52054023742676</c:v>
+                  <c:v>16.52053451538086</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>88.87132263183594</c:v>
+                  <c:v>88.87133026123047</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>11.20835113525391</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>81.13195037841797</c:v>
+                  <c:v>81.13194274902344</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>92.34223175048828</c:v>
+                  <c:v>92.34223937988281</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>87.27793884277344</c:v>
@@ -6119,7 +6119,7 @@
                   <c:v>26.58690452575684</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>82.85492706298828</c:v>
+                  <c:v>82.85493469238281</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>93.66367340087891</c:v>
@@ -6128,22 +6128,22 @@
                   <c:v>87.90946960449219</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.842021942138672</c:v>
+                  <c:v>3.842027902603149</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>78.76659393310547</c:v>
+                  <c:v>78.76658630371094</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>93.38980102539062</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>77.51932525634766</c:v>
+                  <c:v>77.51934051513672</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.710271835327148</c:v>
+                  <c:v>1.71026599407196</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>14.63027381896973</c:v>
+                  <c:v>14.63028526306152</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>-0.448899120092392</c:v>
@@ -6161,76 +6161,76 @@
                   <c:v>33.4322395324707</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>93.63632202148438</c:v>
+                  <c:v>93.63632965087891</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.5688429474830627</c:v>
+                  <c:v>-0.5688546895980835</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>83.53570556640625</c:v>
+                  <c:v>83.53569030761719</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.367922902107239</c:v>
+                  <c:v>1.367934703826904</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>82.2213134765625</c:v>
+                  <c:v>82.22132873535156</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>90.38612365722656</c:v>
+                  <c:v>90.38613891601562</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>67.88136291503906</c:v>
+                  <c:v>67.88135528564453</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.736300468444824</c:v>
+                  <c:v>4.736288547515869</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>92.04966735839844</c:v>
+                  <c:v>92.04967498779297</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>79.56575775146484</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.165350914001465</c:v>
+                  <c:v>8.165362358093262</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-1.986397862434387</c:v>
+                  <c:v>-1.986421346664429</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>93.71114349365234</c:v>
+                  <c:v>93.71113586425781</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>93.51521301269531</c:v>
+                  <c:v>93.51523590087891</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>93.18177795410156</c:v>
+                  <c:v>93.18177032470703</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>93.73088836669922</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-2.179950714111328</c:v>
+                  <c:v>-2.179944753646851</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>82.61382293701172</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>83.68421936035156</c:v>
+                  <c:v>83.68422698974609</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>94.12960052490234</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>81.08815002441406</c:v>
+                  <c:v>81.08815765380859</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-1.194950342178345</c:v>
+                  <c:v>-1.19496214389801</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>90.2186279296875</c:v>
+                  <c:v>90.21862030029297</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>93.49956512451172</c:v>
+                  <c:v>93.49955749511719</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-2.089351892471313</c:v>
@@ -6239,13 +6239,13 @@
                   <c:v>87.14299774169922</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>38.7071418762207</c:v>
+                  <c:v>38.70713043212891</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>91.25480651855469</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.3386235535144806</c:v>
+                  <c:v>0.3386176824569702</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>15.88752746582031</c:v>
@@ -6257,31 +6257,31 @@
                   <c:v>84.42812347412109</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.516512393951416</c:v>
+                  <c:v>-0.5165006518363953</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>56.33003234863281</c:v>
+                  <c:v>56.33003616333008</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93.20587921142578</c:v>
+                  <c:v>93.20588684082031</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.842712879180908</c:v>
+                  <c:v>2.842724800109863</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>90.36067962646484</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>10.66043472290039</c:v>
+                  <c:v>10.66042900085449</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>90.49335479736328</c:v>
+                  <c:v>90.49334716796875</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.128273963928223</c:v>
+                  <c:v>4.128268241882324</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>45.02234649658203</c:v>
+                  <c:v>45.0223388671875</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>91.25343322753906</c:v>
@@ -6979,7 +6979,7 @@
         <v>96.2991</v>
       </c>
       <c r="F2">
-        <v>92.91233062744141</v>
+        <v>92.91232299804688</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.922556400299072</v>
+        <v>5.922562122344971</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3112848997116089</v>
+        <v>0.3112790584564209</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -7107,7 +7107,7 @@
         <v>96.7841</v>
       </c>
       <c r="F6">
-        <v>92.94183349609375</v>
+        <v>92.94185638427734</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7431179285049438</v>
+        <v>0.7431237697601318</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>94.40819999999999</v>
       </c>
       <c r="F11">
-        <v>93.35996246337891</v>
+        <v>93.35995483398438</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>93.14072418212891</v>
+        <v>93.14073181152344</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>97.7777</v>
       </c>
       <c r="F14">
-        <v>90.17292785644531</v>
+        <v>90.17293548583984</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>6.55002498626709</v>
+        <v>6.550036430358887</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.64083194732666</v>
+        <v>4.640849590301514</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>75.7182</v>
       </c>
       <c r="F18">
-        <v>87.06520843505859</v>
+        <v>87.06522369384766</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>7.234822273254395</v>
+        <v>7.234816551208496</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>22.12256622314453</v>
+        <v>22.12255477905273</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.388230085372925</v>
+        <v>3.388224124908447</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>67.3374</v>
       </c>
       <c r="F22">
-        <v>69.38446807861328</v>
+        <v>69.38446044921875</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>94.6263</v>
       </c>
       <c r="F24">
-        <v>93.28594970703125</v>
+        <v>93.28595733642578</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.402937889099121</v>
+        <v>3.40294361114502</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.247421741485596</v>
+        <v>1.247404217720032</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>23.97501564025879</v>
+        <v>23.97500991821289</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>66.73027038574219</v>
+        <v>66.73027801513672</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>94.28400000000001</v>
       </c>
       <c r="F31">
-        <v>89.54631805419922</v>
+        <v>89.54630279541016</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>86.7184</v>
       </c>
       <c r="F32">
-        <v>57.63317489624023</v>
+        <v>57.63317108154297</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.1798658967018127</v>
+        <v>0.179854154586792</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.8140516877174377</v>
+        <v>0.814034104347229</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>94.44029999999999</v>
       </c>
       <c r="F36">
-        <v>80.740478515625</v>
+        <v>80.74048614501953</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>6.746827602386475</v>
+        <v>6.746845245361328</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>16.52054023742676</v>
+        <v>16.52053451538086</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>97.63800000000001</v>
       </c>
       <c r="F40">
-        <v>88.87132263183594</v>
+        <v>88.87133026123047</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>41.033</v>
       </c>
       <c r="F42">
-        <v>81.13195037841797</v>
+        <v>81.13194274902344</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>96.66849999999999</v>
       </c>
       <c r="F43">
-        <v>92.34223175048828</v>
+        <v>92.34223937988281</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>90.426</v>
       </c>
       <c r="F46">
-        <v>82.85492706298828</v>
+        <v>82.85493469238281</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>3.842021942138672</v>
+        <v>3.842027902603149</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>60.2136</v>
       </c>
       <c r="F50">
-        <v>78.76659393310547</v>
+        <v>78.76658630371094</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.4695</v>
       </c>
       <c r="F52">
-        <v>77.51932525634766</v>
+        <v>77.51934051513672</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.710271835327148</v>
+        <v>1.71026599407196</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>55.2559</v>
       </c>
       <c r="F54">
-        <v>14.63027381896973</v>
+        <v>14.63028526306152</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>95.5249</v>
       </c>
       <c r="F60">
-        <v>93.63632202148438</v>
+        <v>93.63632965087891</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-0.5688429474830627</v>
+        <v>-0.5688546895980835</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>95.947</v>
       </c>
       <c r="F62">
-        <v>83.53570556640625</v>
+        <v>83.53569030761719</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.367922902107239</v>
+        <v>1.367934703826904</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>72.6528</v>
       </c>
       <c r="F64">
-        <v>82.2213134765625</v>
+        <v>82.22132873535156</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>91.5611</v>
       </c>
       <c r="F65">
-        <v>90.38612365722656</v>
+        <v>90.38613891601562</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>39.3514</v>
       </c>
       <c r="F66">
-        <v>67.88136291503906</v>
+        <v>67.88135528564453</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>4.736300468444824</v>
+        <v>4.736288547515869</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.0749</v>
       </c>
       <c r="F68">
-        <v>92.04966735839844</v>
+        <v>92.04967498779297</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>8.165350914001465</v>
+        <v>8.165362358093262</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-1.986397862434387</v>
+        <v>-1.986421346664429</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>94.26949999999999</v>
       </c>
       <c r="F72">
-        <v>93.71114349365234</v>
+        <v>93.71113586425781</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>95.1549</v>
       </c>
       <c r="F73">
-        <v>93.51521301269531</v>
+        <v>93.51523590087891</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>93.18177795410156</v>
+        <v>93.18177032470703</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-2.179950714111328</v>
+        <v>-2.179944753646851</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>64.6464</v>
       </c>
       <c r="F78">
-        <v>83.68421936035156</v>
+        <v>83.68422698974609</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>49.6912</v>
       </c>
       <c r="F80">
-        <v>81.08815002441406</v>
+        <v>81.08815765380859</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-1.194950342178345</v>
+        <v>-1.19496214389801</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>97.32899999999999</v>
       </c>
       <c r="F82">
-        <v>90.2186279296875</v>
+        <v>90.21862030029297</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>97.5809</v>
       </c>
       <c r="F83">
-        <v>93.49956512451172</v>
+        <v>93.49955749511719</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>38.7071418762207</v>
+        <v>38.70713043212891</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.3386235535144806</v>
+        <v>0.3386176824569702</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>-0.516512393951416</v>
+        <v>-0.5165006518363953</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>56.33003234863281</v>
+        <v>56.33003616333008</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>95.8237</v>
       </c>
       <c r="F94">
-        <v>93.20587921142578</v>
+        <v>93.20588684082031</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>2.842712879180908</v>
+        <v>2.842724800109863</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>10.66043472290039</v>
+        <v>10.66042900085449</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>94.0264</v>
       </c>
       <c r="F98">
-        <v>90.49335479736328</v>
+        <v>90.49334716796875</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>13.7923</v>
       </c>
       <c r="F99">
-        <v>4.128273963928223</v>
+        <v>4.128268241882324</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>45.02234649658203</v>
+        <v>45.0223388671875</v>
       </c>
     </row>
     <row r="101" spans="1:6">
